--- a/data/poas/poas21.xlsx
+++ b/data/poas/poas21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C665515-2A3D-E244-8199-FC21E505CAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1552C50C-D120-6448-8B38-AA7590A5E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5481" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="180">
   <si>
     <t>AB</t>
   </si>
@@ -9825,7 +9825,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20733,7 +20733,9 @@
       <c r="C172" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D172" s="12"/>
+      <c r="D172" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E172" s="12" t="s">
         <v>22</v>
       </c>
@@ -21802,6 +21804,9 @@
       </c>
       <c r="C189" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>22</v>
@@ -40514,6 +40519,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
+    <Priority xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4233fc49-3339-4531-8895-cee7bd229291">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4DDA97709D05344805E34443243448B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9eeeb8ecc7e5384bf1028f09b4198e68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4233fc49-3339-4531-8895-cee7bd229291" xmlns:ns3="c93905bf-b08c-430b-8630-76f4d352397a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24c3c3abd9978446371d5fdb96159abb" ns2:_="" ns3:_="">
     <xsd:import namespace="4233fc49-3339-4531-8895-cee7bd229291"/>
@@ -40745,29 +40772,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1286C2-D303-4CB0-988E-81FAB35D11B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
-    <Priority xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4233fc49-3339-4531-8895-cee7bd229291">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B407060D-E707-4A24-875F-4E4C1B032515}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4233fc49-3339-4531-8895-cee7bd229291"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D891CB69-F5BA-4210-B9BF-2F4C2B80A6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40784,29 +40814,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1286C2-D303-4CB0-988E-81FAB35D11B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B407060D-E707-4A24-875F-4E4C1B032515}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4233fc49-3339-4531-8895-cee7bd229291"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/poas/poas21.xlsx
+++ b/data/poas/poas21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1552C50C-D120-6448-8B38-AA7590A5E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC493E25-A85A-4B49-B876-F7E6D53FD39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="175">
   <si>
     <t>AB</t>
   </si>
@@ -299,9 +299,6 @@
     <t>PFA</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>SEL</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
   </si>
   <si>
     <t>MED</t>
-  </si>
-  <si>
-    <t>NON-SELECT</t>
   </si>
   <si>
     <t>BRD</t>
@@ -335,9 +329,6 @@
     <t>25Q</t>
   </si>
   <si>
-    <t>1 YR</t>
-  </si>
-  <si>
     <t>92A</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
   </si>
   <si>
     <t>15Q</t>
-  </si>
-  <si>
-    <t>4 YR</t>
   </si>
   <si>
     <t>ADMIN</t>
@@ -405,9 +393,6 @@
   </si>
   <si>
     <t>VIETNAMESE-CENTRAL</t>
-  </si>
-  <si>
-    <t>NONSELECT</t>
   </si>
   <si>
     <t>25U</t>
@@ -467,13 +452,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>6 YR</t>
-  </si>
-  <si>
     <t>91C</t>
-  </si>
-  <si>
-    <t>2 YR</t>
   </si>
   <si>
     <t>RUSSIAN</t>
@@ -483,9 +462,6 @@
   </si>
   <si>
     <t>HINDI</t>
-  </si>
-  <si>
-    <t>3 YR</t>
   </si>
   <si>
     <t>94E</t>
@@ -507,9 +483,6 @@
   </si>
   <si>
     <t>09L</t>
-  </si>
-  <si>
-    <t>5 YR</t>
   </si>
   <si>
     <t>91A</t>
@@ -576,6 +549,18 @@
   </si>
   <si>
     <t>SEC</t>
+  </si>
+  <si>
+    <t>5YR</t>
+  </si>
+  <si>
+    <t>SELECTEDED</t>
+  </si>
+  <si>
+    <t>NONSELECTEDED</t>
+  </si>
+  <si>
+    <t>NON-SELECTEDED</t>
   </si>
 </sst>
 </file>
@@ -9823,7 +9808,7 @@
   </sheetPr>
   <dimension ref="A1:U483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
@@ -9866,7 +9851,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -9943,7 +9928,7 @@
         <v>276</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>24</v>
@@ -9977,10 +9962,10 @@
         <v>23</v>
       </c>
       <c r="T2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10040,10 +10025,10 @@
         <v>23</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10144,7 +10129,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M5" s="9">
         <v>106</v>
@@ -10233,10 +10218,10 @@
         <v>23</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10296,10 +10281,10 @@
         <v>23</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10325,7 +10310,7 @@
         <v>287</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>24</v>
@@ -10359,15 +10344,15 @@
         <v>23</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>40</v>
@@ -10422,10 +10407,10 @@
         <v>23</v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10451,7 +10436,7 @@
         <v>294</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>20</v>
@@ -10485,10 +10470,10 @@
         <v>23</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10514,7 +10499,7 @@
         <v>293</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>20</v>
@@ -10548,10 +10533,10 @@
         <v>23</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10611,10 +10596,10 @@
         <v>23</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10640,7 +10625,7 @@
         <v>250</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>20</v>
@@ -10676,10 +10661,10 @@
         <v>23</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10705,7 +10690,7 @@
         <v>286</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>20</v>
@@ -10739,10 +10724,10 @@
         <v>23</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10768,7 +10753,7 @@
         <v>228</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>20</v>
@@ -10804,10 +10789,10 @@
         <v>23</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10818,7 +10803,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -10836,7 +10821,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -10867,10 +10852,10 @@
         <v>23</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10995,10 +10980,10 @@
         <v>23</v>
       </c>
       <c r="T18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11036,7 +11021,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M19" s="9">
         <v>108</v>
@@ -11060,10 +11045,10 @@
         <v>23</v>
       </c>
       <c r="T19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11074,7 +11059,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -11125,10 +11110,10 @@
         <v>23</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11139,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -11190,10 +11175,10 @@
         <v>23</v>
       </c>
       <c r="T21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11253,10 +11238,10 @@
         <v>23</v>
       </c>
       <c r="T22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11267,7 +11252,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -11282,7 +11267,7 @@
         <v>285</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>24</v>
@@ -11318,10 +11303,10 @@
         <v>23</v>
       </c>
       <c r="T23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11347,7 +11332,7 @@
         <v>295</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>20</v>
@@ -11359,7 +11344,7 @@
         <v>24</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M24" s="9">
         <v>138</v>
@@ -11383,10 +11368,10 @@
         <v>23</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11446,10 +11431,10 @@
         <v>23</v>
       </c>
       <c r="T25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U25" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11509,10 +11494,10 @@
         <v>23</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11574,15 +11559,15 @@
         <v>23</v>
       </c>
       <c r="T27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>40</v>
@@ -11603,7 +11588,7 @@
         <v>280</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>24</v>
@@ -11639,21 +11624,21 @@
         <v>23</v>
       </c>
       <c r="T28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -11675,7 +11660,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -11686,10 +11671,10 @@
         <v>23</v>
       </c>
       <c r="T29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11749,10 +11734,10 @@
         <v>23</v>
       </c>
       <c r="T30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11763,7 +11748,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
@@ -11778,7 +11763,7 @@
         <v>256</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>20</v>
@@ -11814,10 +11799,10 @@
         <v>23</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11877,10 +11862,10 @@
         <v>23</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11969,7 +11954,7 @@
         <v>247</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>20</v>
@@ -12044,7 +12029,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M35" s="9">
         <v>116</v>
@@ -12068,10 +12053,10 @@
         <v>23</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12109,7 +12094,7 @@
         <v>36</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M36" s="9">
         <v>101</v>
@@ -12133,10 +12118,10 @@
         <v>23</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12198,10 +12183,10 @@
         <v>22</v>
       </c>
       <c r="T37" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12263,10 +12248,10 @@
         <v>22</v>
       </c>
       <c r="T38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U38" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12328,10 +12313,10 @@
         <v>22</v>
       </c>
       <c r="T39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U39" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12393,10 +12378,10 @@
         <v>22</v>
       </c>
       <c r="T40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U40" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12456,10 +12441,10 @@
         <v>22</v>
       </c>
       <c r="T41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U41" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12519,10 +12504,10 @@
         <v>22</v>
       </c>
       <c r="T42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U42" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12582,10 +12567,10 @@
         <v>22</v>
       </c>
       <c r="T43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12645,10 +12630,10 @@
         <v>22</v>
       </c>
       <c r="T44" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U44" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12708,10 +12693,10 @@
         <v>22</v>
       </c>
       <c r="T45" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U45" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U45" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12771,10 +12756,10 @@
         <v>22</v>
       </c>
       <c r="T46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U46" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U46" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12836,10 +12821,10 @@
         <v>22</v>
       </c>
       <c r="T47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U47" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U47" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12962,10 +12947,10 @@
         <v>22</v>
       </c>
       <c r="T49" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U49" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U49" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13025,10 +13010,10 @@
         <v>22</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13090,10 +13075,10 @@
         <v>22</v>
       </c>
       <c r="T51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U51" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U51" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13153,10 +13138,10 @@
         <v>22</v>
       </c>
       <c r="T52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U52" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U52" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13216,10 +13201,10 @@
         <v>22</v>
       </c>
       <c r="T53" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U53" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U53" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13279,10 +13264,10 @@
         <v>22</v>
       </c>
       <c r="T54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U54" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U54" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13344,10 +13329,10 @@
         <v>22</v>
       </c>
       <c r="T55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U55" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13407,10 +13392,10 @@
         <v>22</v>
       </c>
       <c r="T56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U56" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U56" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13470,10 +13455,10 @@
         <v>22</v>
       </c>
       <c r="T57" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U57" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U57" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13598,10 +13583,10 @@
         <v>22</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U59" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13661,10 +13646,10 @@
         <v>22</v>
       </c>
       <c r="T60" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U60" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U60" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13724,10 +13709,10 @@
         <v>22</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U61" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13787,10 +13772,10 @@
         <v>22</v>
       </c>
       <c r="T62" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U62" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U62" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13850,10 +13835,10 @@
         <v>22</v>
       </c>
       <c r="T63" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U63" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U63" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13980,10 +13965,10 @@
         <v>22</v>
       </c>
       <c r="T65" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U65" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U65" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14045,10 +14030,10 @@
         <v>22</v>
       </c>
       <c r="T66" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U66" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U66" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14108,10 +14093,10 @@
         <v>22</v>
       </c>
       <c r="T67" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U67" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U67" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14173,10 +14158,10 @@
         <v>22</v>
       </c>
       <c r="T68" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U68" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U68" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14214,7 +14199,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M69" s="13">
         <v>120</v>
@@ -14238,10 +14223,10 @@
         <v>22</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U69" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14301,10 +14286,10 @@
         <v>22</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U70" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14364,10 +14349,10 @@
         <v>22</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14441,7 +14426,7 @@
         <v>40</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>22</v>
@@ -14492,10 +14477,10 @@
         <v>22</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U73" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14506,7 +14491,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>22</v>
@@ -14555,10 +14540,10 @@
         <v>22</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U74" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14569,7 +14554,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>22</v>
@@ -14685,10 +14670,10 @@
         <v>22</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U76" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14699,7 +14684,7 @@
         <v>40</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>22</v>
@@ -14748,10 +14733,10 @@
         <v>22</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U77" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14825,7 +14810,7 @@
         <v>40</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>22</v>
@@ -14874,10 +14859,10 @@
         <v>22</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U79" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15000,10 +14985,10 @@
         <v>22</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U81" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15063,10 +15048,10 @@
         <v>22</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U82" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15126,10 +15111,10 @@
         <v>22</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15189,10 +15174,10 @@
         <v>22</v>
       </c>
       <c r="T84" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U84" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U84" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15254,10 +15239,10 @@
         <v>22</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U85" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15319,10 +15304,10 @@
         <v>22</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U86" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15381,10 +15366,10 @@
         <v>22</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15446,10 +15431,10 @@
         <v>22</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U88" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15509,10 +15494,10 @@
         <v>22</v>
       </c>
       <c r="T89" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U89" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U89" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15523,7 +15508,7 @@
         <v>51</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>22</v>
@@ -15574,10 +15559,10 @@
         <v>22</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U90" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15637,10 +15622,10 @@
         <v>22</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U91" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15700,10 +15685,10 @@
         <v>22</v>
       </c>
       <c r="T92" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U92" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U92" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15761,10 +15746,10 @@
         <v>22</v>
       </c>
       <c r="T93" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U93" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U93" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15775,7 +15760,7 @@
         <v>40</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>22</v>
@@ -15826,10 +15811,10 @@
         <v>22</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U94" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15867,7 +15852,7 @@
         <v>34</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M95" s="13">
         <v>133</v>
@@ -15891,10 +15876,10 @@
         <v>22</v>
       </c>
       <c r="T95" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U95" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U95" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15956,10 +15941,10 @@
         <v>22</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U96" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16019,10 +16004,10 @@
         <v>22</v>
       </c>
       <c r="T97" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U97" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U97" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16084,10 +16069,10 @@
         <v>22</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U98" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16098,7 +16083,7 @@
         <v>40</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>22</v>
@@ -16147,10 +16132,10 @@
         <v>22</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U99" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16209,10 +16194,10 @@
         <v>22</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U100" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16272,10 +16257,10 @@
         <v>22</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U101" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16286,7 +16271,7 @@
         <v>42</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>22</v>
@@ -16337,10 +16322,10 @@
         <v>22</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U102" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16400,10 +16385,10 @@
         <v>22</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U103" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16463,10 +16448,10 @@
         <v>22</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U104" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16477,7 +16462,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>22</v>
@@ -16526,21 +16511,21 @@
         <v>22</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U105" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>22</v>
@@ -16603,7 +16588,7 @@
         <v>40</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>22</v>
@@ -16652,10 +16637,10 @@
         <v>22</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U107" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16717,10 +16702,10 @@
         <v>22</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U108" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16780,10 +16765,10 @@
         <v>22</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U109" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16843,10 +16828,10 @@
         <v>22</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U110" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16906,10 +16891,10 @@
         <v>22</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U111" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16969,10 +16954,10 @@
         <v>22</v>
       </c>
       <c r="T112" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U112" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16998,7 +16983,7 @@
         <v>300</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>20</v>
@@ -17034,10 +17019,10 @@
         <v>22</v>
       </c>
       <c r="T113" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U113" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U113" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17097,10 +17082,10 @@
         <v>22</v>
       </c>
       <c r="T114" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U114" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U114" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17129,7 +17114,7 @@
         <v>26</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J115" s="13">
         <v>0</v>
@@ -17138,7 +17123,7 @@
         <v>26</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M115" s="13">
         <v>104</v>
@@ -17162,10 +17147,10 @@
         <v>22</v>
       </c>
       <c r="T115" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U115" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17224,10 +17209,10 @@
         <v>22</v>
       </c>
       <c r="T116" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U116" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U116" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17287,10 +17272,10 @@
         <v>22</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U117" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17316,7 +17301,7 @@
         <v>300</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>24</v>
@@ -17350,10 +17335,10 @@
         <v>22</v>
       </c>
       <c r="T118" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U118" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U118" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17413,10 +17398,10 @@
         <v>22</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U119" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17445,7 +17430,7 @@
         <v>26</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J120" s="13">
         <v>0</v>
@@ -17476,10 +17461,10 @@
         <v>22</v>
       </c>
       <c r="T120" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U120" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U120" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17490,7 +17475,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>22</v>
@@ -17505,7 +17490,7 @@
         <v>260</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>20</v>
@@ -17539,10 +17524,10 @@
         <v>22</v>
       </c>
       <c r="T121" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U121" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17568,7 +17553,7 @@
         <v>290</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>24</v>
@@ -17602,10 +17587,10 @@
         <v>22</v>
       </c>
       <c r="T122" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U122" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U122" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17667,10 +17652,10 @@
         <v>22</v>
       </c>
       <c r="T123" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U123" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17696,10 +17681,10 @@
         <v>285</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J124" s="13">
         <v>1</v>
@@ -17732,10 +17717,10 @@
         <v>22</v>
       </c>
       <c r="T124" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U124" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U124" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17795,10 +17780,10 @@
         <v>22</v>
       </c>
       <c r="T125" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U125" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17809,7 +17794,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>22</v>
@@ -17860,10 +17845,10 @@
         <v>22</v>
       </c>
       <c r="T126" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U126" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U126" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17874,7 +17859,7 @@
         <v>51</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>23</v>
@@ -17901,7 +17886,7 @@
         <v>20</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M127" s="13">
         <v>131</v>
@@ -17925,10 +17910,10 @@
         <v>22</v>
       </c>
       <c r="T127" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U127" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17988,10 +17973,10 @@
         <v>22</v>
       </c>
       <c r="T128" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U128" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18017,7 +18002,7 @@
         <v>241</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I129" s="18" t="s">
         <v>24</v>
@@ -18053,10 +18038,10 @@
         <v>22</v>
       </c>
       <c r="T129" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U129" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18082,7 +18067,7 @@
         <v>297</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I130" s="18" t="s">
         <v>24</v>
@@ -18116,10 +18101,10 @@
         <v>22</v>
       </c>
       <c r="T130" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U130" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18193,7 +18178,7 @@
         <v>40</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>22</v>
@@ -18208,7 +18193,7 @@
         <v>269</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I132" s="18" t="s">
         <v>24</v>
@@ -18244,10 +18229,10 @@
         <v>22</v>
       </c>
       <c r="T132" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U132" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18258,7 +18243,7 @@
         <v>42</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>22</v>
@@ -18273,7 +18258,7 @@
         <v>257</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I133" s="18" t="s">
         <v>24</v>
@@ -18285,7 +18270,7 @@
         <v>36</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M133" s="23">
         <v>108</v>
@@ -18309,10 +18294,10 @@
         <v>22</v>
       </c>
       <c r="T133" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U133" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18338,7 +18323,7 @@
         <v>274</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I134" s="18" t="s">
         <v>24</v>
@@ -18372,10 +18357,10 @@
         <v>22</v>
       </c>
       <c r="T134" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U134" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18386,7 +18371,7 @@
         <v>51</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>22</v>
@@ -18435,10 +18420,10 @@
         <v>22</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U135" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18449,7 +18434,7 @@
         <v>51</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>22</v>
@@ -18498,10 +18483,10 @@
         <v>22</v>
       </c>
       <c r="T136" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U136" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18527,10 +18512,10 @@
         <v>255</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J137" s="23">
         <v>0</v>
@@ -18561,10 +18546,10 @@
         <v>22</v>
       </c>
       <c r="T137" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U137" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18590,7 +18575,7 @@
         <v>268</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I138" s="18" t="s">
         <v>24</v>
@@ -18626,10 +18611,10 @@
         <v>22</v>
       </c>
       <c r="T138" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U138" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18689,10 +18674,10 @@
         <v>22</v>
       </c>
       <c r="T139" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U139" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18718,7 +18703,7 @@
         <v>272</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I140" s="18" t="s">
         <v>24</v>
@@ -18754,10 +18739,10 @@
         <v>22</v>
       </c>
       <c r="T140" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U140" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18768,7 +18753,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>22</v>
@@ -18783,7 +18768,7 @@
         <v>292</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>24</v>
@@ -18817,10 +18802,10 @@
         <v>22</v>
       </c>
       <c r="T141" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U141" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18880,10 +18865,10 @@
         <v>22</v>
       </c>
       <c r="T142" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U142" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18945,10 +18930,10 @@
         <v>22</v>
       </c>
       <c r="T143" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U143" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19008,10 +18993,10 @@
         <v>22</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U144" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19037,7 +19022,7 @@
         <v>267</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I145" s="12" t="s">
         <v>20</v>
@@ -19070,10 +19055,10 @@
         <v>22</v>
       </c>
       <c r="T145" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U145" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19164,7 +19149,7 @@
         <v>279</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I147" s="10" t="s">
         <v>24</v>
@@ -19200,10 +19185,10 @@
         <v>22</v>
       </c>
       <c r="T147" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U147" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19262,10 +19247,10 @@
         <v>22</v>
       </c>
       <c r="T148" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U148" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19303,7 +19288,7 @@
         <v>28</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M149" s="9">
         <v>110</v>
@@ -19327,10 +19312,10 @@
         <v>22</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19389,10 +19374,10 @@
         <v>22</v>
       </c>
       <c r="T150" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U150" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19451,10 +19436,10 @@
         <v>22</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19465,7 +19450,7 @@
         <v>42</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>22</v>
@@ -19480,7 +19465,7 @@
         <v>263</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I152" s="10" t="s">
         <v>24</v>
@@ -19516,10 +19501,10 @@
         <v>22</v>
       </c>
       <c r="T152" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U152" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19548,7 +19533,7 @@
         <v>26</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J153" s="9">
         <v>1</v>
@@ -19581,10 +19566,10 @@
         <v>22</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19595,7 +19580,7 @@
         <v>42</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>22</v>
@@ -19610,7 +19595,7 @@
         <v>253</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I154" s="10" t="s">
         <v>24</v>
@@ -19643,10 +19628,10 @@
         <v>22</v>
       </c>
       <c r="T154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U154" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="U154" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19672,7 +19657,7 @@
         <v>260</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I155" s="10" t="s">
         <v>24</v>
@@ -19684,7 +19669,7 @@
         <v>30</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M155" s="9">
         <v>114</v>
@@ -19708,10 +19693,10 @@
         <v>22</v>
       </c>
       <c r="T155" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U155" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19832,10 +19817,10 @@
         <v>22</v>
       </c>
       <c r="T157" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U157" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19861,7 +19846,7 @@
         <v>253</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I158" s="10" t="s">
         <v>24</v>
@@ -19897,10 +19882,10 @@
         <v>22</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U158" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19926,7 +19911,7 @@
         <v>295</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I159" s="10" t="s">
         <v>24</v>
@@ -19959,10 +19944,10 @@
         <v>22</v>
       </c>
       <c r="T159" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U159" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19973,7 +19958,7 @@
         <v>83</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>22</v>
@@ -20024,21 +20009,21 @@
         <v>22</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>23</v>
@@ -20053,7 +20038,7 @@
         <v>225</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>24</v>
@@ -20065,7 +20050,7 @@
         <v>35</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M161" s="9">
         <v>101</v>
@@ -20089,10 +20074,10 @@
         <v>22</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U161" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20151,10 +20136,10 @@
         <v>22</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U162" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20165,7 +20150,7 @@
         <v>42</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -20216,10 +20201,10 @@
         <v>22</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20278,10 +20263,10 @@
         <v>22</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U164" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20292,7 +20277,7 @@
         <v>40</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -20340,10 +20325,10 @@
         <v>22</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U165" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20402,10 +20387,10 @@
         <v>22</v>
       </c>
       <c r="T166" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U166" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20431,7 +20416,7 @@
         <v>263</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I167" s="12" t="s">
         <v>20</v>
@@ -20467,10 +20452,10 @@
         <v>22</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U167" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20496,7 +20481,7 @@
         <v>225</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I168" s="10" t="s">
         <v>24</v>
@@ -20529,10 +20514,10 @@
         <v>22</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U168" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20558,7 +20543,7 @@
         <v>264</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I169" s="12" t="s">
         <v>20</v>
@@ -20591,10 +20576,10 @@
         <v>22</v>
       </c>
       <c r="T169" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U169" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="U169" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20654,10 +20639,10 @@
         <v>22</v>
       </c>
       <c r="T170" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U170" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U170" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20717,10 +20702,10 @@
         <v>22</v>
       </c>
       <c r="T171" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U171" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U171" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20780,10 +20765,10 @@
         <v>22</v>
       </c>
       <c r="T172" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U172" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20809,7 +20794,7 @@
         <v>280</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I173" s="10" t="s">
         <v>20</v>
@@ -20843,10 +20828,10 @@
         <v>22</v>
       </c>
       <c r="T173" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U173" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U173" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20906,10 +20891,10 @@
         <v>22</v>
       </c>
       <c r="T174" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U174" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20920,7 +20905,7 @@
         <v>42</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>22</v>
@@ -20968,10 +20953,10 @@
         <v>22</v>
       </c>
       <c r="T175" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U175" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U175" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20997,7 +20982,7 @@
         <v>275</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I176" s="10" t="s">
         <v>24</v>
@@ -21030,10 +21015,10 @@
         <v>22</v>
       </c>
       <c r="T176" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U176" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U176" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21059,7 +21044,7 @@
         <v>262</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>20</v>
@@ -21095,10 +21080,10 @@
         <v>22</v>
       </c>
       <c r="T177" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U177" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U177" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21160,10 +21145,10 @@
         <v>22</v>
       </c>
       <c r="T178" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U178" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U178" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21174,7 +21159,7 @@
         <v>40</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>22</v>
@@ -21189,7 +21174,7 @@
         <v>249</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I179" s="10" t="s">
         <v>20</v>
@@ -21222,10 +21207,10 @@
         <v>22</v>
       </c>
       <c r="T179" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U179" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21236,7 +21221,7 @@
         <v>42</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>22</v>
@@ -21251,7 +21236,7 @@
         <v>220</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I180" s="10" t="s">
         <v>20</v>
@@ -21284,10 +21269,10 @@
         <v>22</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U180" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21346,10 +21331,10 @@
         <v>22</v>
       </c>
       <c r="T181" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U181" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U181" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21408,10 +21393,10 @@
         <v>22</v>
       </c>
       <c r="T182" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U182" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21422,7 +21407,7 @@
         <v>51</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>22</v>
@@ -21437,7 +21422,7 @@
         <v>270</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I183" s="10" t="s">
         <v>24</v>
@@ -21449,7 +21434,7 @@
         <v>36</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M183" s="9">
         <v>117</v>
@@ -21473,10 +21458,10 @@
         <v>22</v>
       </c>
       <c r="T183" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U183" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21535,21 +21520,21 @@
         <v>22</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U184" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>22</v>
@@ -21564,7 +21549,7 @@
         <v>242</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I185" s="10" t="s">
         <v>24</v>
@@ -21597,10 +21582,10 @@
         <v>22</v>
       </c>
       <c r="T185" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U185" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U185" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21626,7 +21611,7 @@
         <v>253</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I186" s="10" t="s">
         <v>24</v>
@@ -21691,7 +21676,7 @@
         <v>268</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I187" s="10" t="s">
         <v>20</v>
@@ -21724,10 +21709,10 @@
         <v>22</v>
       </c>
       <c r="T187" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U187" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U187" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21738,7 +21723,7 @@
         <v>40</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>22</v>
@@ -21789,10 +21774,10 @@
         <v>22</v>
       </c>
       <c r="T188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U188" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U188" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21818,7 +21803,7 @@
         <v>295</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I189" s="10" t="s">
         <v>20</v>
@@ -21851,15 +21836,15 @@
         <v>22</v>
       </c>
       <c r="T189" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U189" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U189" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>40</v>
@@ -21916,10 +21901,10 @@
         <v>22</v>
       </c>
       <c r="T190" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U190" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U190" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21930,7 +21915,7 @@
         <v>40</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>22</v>
@@ -21945,7 +21930,7 @@
         <v>210</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>24</v>
@@ -21978,10 +21963,10 @@
         <v>22</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U191" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22007,7 +21992,7 @@
         <v>300</v>
       </c>
       <c r="H192" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>24</v>
@@ -22040,10 +22025,10 @@
         <v>22</v>
       </c>
       <c r="T192" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U192" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U192" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22069,7 +22054,7 @@
         <v>276</v>
       </c>
       <c r="H193" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I193" s="10" t="s">
         <v>20</v>
@@ -22102,10 +22087,10 @@
         <v>22</v>
       </c>
       <c r="T193" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U193" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U193" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22116,7 +22101,7 @@
         <v>40</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>22</v>
@@ -22164,15 +22149,15 @@
         <v>22</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U194" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>42</v>
@@ -22226,10 +22211,10 @@
         <v>22</v>
       </c>
       <c r="T195" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U195" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U195" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22288,10 +22273,10 @@
         <v>22</v>
       </c>
       <c r="T196" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U196" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U196" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22302,7 +22287,7 @@
         <v>40</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>22</v>
@@ -22413,10 +22398,10 @@
         <v>23</v>
       </c>
       <c r="T198" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U198" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U198" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22476,10 +22461,10 @@
         <v>23</v>
       </c>
       <c r="T199" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U199" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U199" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22541,10 +22526,10 @@
         <v>23</v>
       </c>
       <c r="T200" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U200" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22606,10 +22591,10 @@
         <v>23</v>
       </c>
       <c r="T201" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U201" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22671,10 +22656,10 @@
         <v>23</v>
       </c>
       <c r="T202" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U202" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U202" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22736,10 +22721,10 @@
         <v>23</v>
       </c>
       <c r="T203" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U203" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22864,10 +22849,10 @@
         <v>23</v>
       </c>
       <c r="T205" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U205" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22927,10 +22912,10 @@
         <v>23</v>
       </c>
       <c r="T206" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U206" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23116,10 +23101,10 @@
         <v>23</v>
       </c>
       <c r="T209" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="U209" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="U209" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23179,10 +23164,10 @@
         <v>23</v>
       </c>
       <c r="T210" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U210" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U210" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23242,10 +23227,10 @@
         <v>23</v>
       </c>
       <c r="T211" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U211" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23305,10 +23290,10 @@
         <v>23</v>
       </c>
       <c r="T212" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U212" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U212" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23431,10 +23416,10 @@
         <v>23</v>
       </c>
       <c r="T214" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U214" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23496,10 +23481,10 @@
         <v>23</v>
       </c>
       <c r="T215" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U215" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U215" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23561,10 +23546,10 @@
         <v>23</v>
       </c>
       <c r="T216" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U216" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U216" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23624,10 +23609,10 @@
         <v>23</v>
       </c>
       <c r="T217" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U217" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U217" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23815,10 +23800,10 @@
         <v>23</v>
       </c>
       <c r="T220" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U220" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U220" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23880,10 +23865,10 @@
         <v>23</v>
       </c>
       <c r="T221" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U221" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23943,10 +23928,10 @@
         <v>23</v>
       </c>
       <c r="T222" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U222" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U222" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="223" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24006,10 +23991,10 @@
         <v>23</v>
       </c>
       <c r="T223" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U223" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24069,10 +24054,10 @@
         <v>23</v>
       </c>
       <c r="T224" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U224" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24132,10 +24117,10 @@
         <v>23</v>
       </c>
       <c r="T225" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U225" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U225" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24195,10 +24180,10 @@
         <v>23</v>
       </c>
       <c r="T226" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U226" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24260,10 +24245,10 @@
         <v>23</v>
       </c>
       <c r="T227" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U227" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U227" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24451,10 +24436,10 @@
         <v>23</v>
       </c>
       <c r="T230" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U230" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U230" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24514,10 +24499,10 @@
         <v>23</v>
       </c>
       <c r="T231" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U231" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U231" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24577,10 +24562,10 @@
         <v>23</v>
       </c>
       <c r="T232" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U232" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U232" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24640,10 +24625,10 @@
         <v>23</v>
       </c>
       <c r="T233" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U233" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24831,10 +24816,10 @@
         <v>23</v>
       </c>
       <c r="T236" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U236" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U236" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24894,10 +24879,10 @@
         <v>23</v>
       </c>
       <c r="T237" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U237" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U237" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24959,10 +24944,10 @@
         <v>23</v>
       </c>
       <c r="T238" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U238" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25152,10 +25137,10 @@
         <v>23</v>
       </c>
       <c r="T241" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U241" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U241" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25214,10 +25199,10 @@
         <v>23</v>
       </c>
       <c r="T242" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U242" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U242" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25276,10 +25261,10 @@
         <v>23</v>
       </c>
       <c r="T243" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U243" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U243" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25406,10 +25391,10 @@
         <v>23</v>
       </c>
       <c r="T245" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="U245" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="U245" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25471,10 +25456,10 @@
         <v>23</v>
       </c>
       <c r="T246" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U246" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U246" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="247" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25533,10 +25518,10 @@
         <v>23</v>
       </c>
       <c r="T247" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U247" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U247" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25572,7 +25557,7 @@
         <v>32</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M248" s="13">
         <v>100</v>
@@ -25596,10 +25581,10 @@
         <v>23</v>
       </c>
       <c r="T248" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U248" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25610,7 +25595,7 @@
         <v>40</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>22</v>
@@ -25659,10 +25644,10 @@
         <v>23</v>
       </c>
       <c r="T249" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U249" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25673,7 +25658,7 @@
         <v>51</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>22</v>
@@ -25700,7 +25685,7 @@
         <v>25</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M250" s="13">
         <v>132</v>
@@ -25724,10 +25709,10 @@
         <v>23</v>
       </c>
       <c r="T250" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U250" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25738,7 +25723,7 @@
         <v>40</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>23</v>
@@ -25913,10 +25898,10 @@
         <v>23</v>
       </c>
       <c r="T253" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U253" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25976,10 +25961,10 @@
         <v>23</v>
       </c>
       <c r="T254" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U254" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26005,7 +25990,7 @@
         <v>247</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I255" s="12" t="s">
         <v>24</v>
@@ -26041,10 +26026,10 @@
         <v>23</v>
       </c>
       <c r="T255" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U255" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26055,7 +26040,7 @@
         <v>40</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>22</v>
@@ -26118,7 +26103,7 @@
         <v>42</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>22</v>
@@ -26167,10 +26152,10 @@
         <v>23</v>
       </c>
       <c r="T257" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U257" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26230,10 +26215,10 @@
         <v>23</v>
       </c>
       <c r="T258" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U258" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26293,10 +26278,10 @@
         <v>23</v>
       </c>
       <c r="T259" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U259" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26356,10 +26341,10 @@
         <v>23</v>
       </c>
       <c r="T260" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U260" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26370,7 +26355,7 @@
         <v>42</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>22</v>
@@ -26421,10 +26406,10 @@
         <v>23</v>
       </c>
       <c r="T261" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U261" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26561,7 +26546,7 @@
         <v>40</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>22</v>
@@ -26673,10 +26658,10 @@
         <v>23</v>
       </c>
       <c r="T265" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U265" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26736,10 +26721,10 @@
         <v>23</v>
       </c>
       <c r="T266" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U266" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26799,10 +26784,10 @@
         <v>23</v>
       </c>
       <c r="T267" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U267" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26864,10 +26849,10 @@
         <v>23</v>
       </c>
       <c r="T268" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U268" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26927,21 +26912,21 @@
         <v>23</v>
       </c>
       <c r="T269" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U269" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B270" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>22</v>
@@ -26990,10 +26975,10 @@
         <v>23</v>
       </c>
       <c r="T270" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U270" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27053,10 +27038,10 @@
         <v>23</v>
       </c>
       <c r="T271" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U271" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="272" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27116,10 +27101,10 @@
         <v>23</v>
       </c>
       <c r="T272" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U272" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27179,10 +27164,10 @@
         <v>23</v>
       </c>
       <c r="T273" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U273" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="274" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27193,7 +27178,7 @@
         <v>40</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>23</v>
@@ -27244,15 +27229,15 @@
         <v>23</v>
       </c>
       <c r="T274" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U274" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="275" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>40</v>
@@ -27307,10 +27292,10 @@
         <v>23</v>
       </c>
       <c r="T275" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U275" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27370,10 +27355,10 @@
         <v>23</v>
       </c>
       <c r="T276" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U276" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27384,7 +27369,7 @@
         <v>42</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>22</v>
@@ -27433,10 +27418,10 @@
         <v>23</v>
       </c>
       <c r="T277" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U277" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27447,7 +27432,7 @@
         <v>40</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>22</v>
@@ -27512,7 +27497,7 @@
         <v>40</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>22</v>
@@ -27561,10 +27546,10 @@
         <v>23</v>
       </c>
       <c r="T279" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U279" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27624,10 +27609,10 @@
         <v>23</v>
       </c>
       <c r="T280" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U280" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27687,10 +27672,10 @@
         <v>23</v>
       </c>
       <c r="T281" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U281" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27750,10 +27735,10 @@
         <v>23</v>
       </c>
       <c r="T282" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U282" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27813,10 +27798,10 @@
         <v>23</v>
       </c>
       <c r="T283" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U283" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U283" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27842,7 +27827,7 @@
         <v>274</v>
       </c>
       <c r="H284" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I284" s="12" t="s">
         <v>24</v>
@@ -27854,7 +27839,7 @@
         <v>33</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M284" s="13">
         <v>105</v>
@@ -27878,10 +27863,10 @@
         <v>23</v>
       </c>
       <c r="T284" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U284" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -27919,7 +27904,7 @@
         <v>26</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M285" s="13">
         <v>131</v>
@@ -27943,10 +27928,10 @@
         <v>23</v>
       </c>
       <c r="T285" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U285" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U285" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28008,10 +27993,10 @@
         <v>23</v>
       </c>
       <c r="T286" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U286" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U286" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28071,10 +28056,10 @@
         <v>23</v>
       </c>
       <c r="T287" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U287" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U287" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28134,10 +28119,10 @@
         <v>23</v>
       </c>
       <c r="T288" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U288" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U288" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28197,10 +28182,10 @@
         <v>23</v>
       </c>
       <c r="T289" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U289" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U289" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28260,10 +28245,10 @@
         <v>23</v>
       </c>
       <c r="T290" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U290" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U290" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28323,10 +28308,10 @@
         <v>23</v>
       </c>
       <c r="T291" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U291" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="292" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28386,10 +28371,10 @@
         <v>23</v>
       </c>
       <c r="T292" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U292" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U292" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28449,10 +28434,10 @@
         <v>23</v>
       </c>
       <c r="T293" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U293" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U293" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28512,10 +28497,10 @@
         <v>23</v>
       </c>
       <c r="T294" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U294" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U294" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28575,10 +28560,10 @@
         <v>23</v>
       </c>
       <c r="T295" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U295" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U295" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28638,10 +28623,10 @@
         <v>23</v>
       </c>
       <c r="T296" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U296" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28652,7 +28637,7 @@
         <v>40</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>22</v>
@@ -28764,10 +28749,10 @@
         <v>23</v>
       </c>
       <c r="T298" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U298" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U298" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28829,10 +28814,10 @@
         <v>23</v>
       </c>
       <c r="T299" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U299" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U299" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28858,7 +28843,7 @@
         <v>271</v>
       </c>
       <c r="H300" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I300" s="12" t="s">
         <v>20</v>
@@ -28894,10 +28879,10 @@
         <v>23</v>
       </c>
       <c r="T300" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U300" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U300" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28957,10 +28942,10 @@
         <v>23</v>
       </c>
       <c r="T301" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U301" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U301" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29085,21 +29070,21 @@
         <v>23</v>
       </c>
       <c r="T303" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U303" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U303" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>22</v>
@@ -29148,10 +29133,10 @@
         <v>23</v>
       </c>
       <c r="T304" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="U304" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="U304" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29213,10 +29198,10 @@
         <v>23</v>
       </c>
       <c r="T305" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U305" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29276,10 +29261,10 @@
         <v>23</v>
       </c>
       <c r="T306" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U306" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U306" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29339,10 +29324,10 @@
         <v>23</v>
       </c>
       <c r="T307" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U307" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U307" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29402,10 +29387,10 @@
         <v>23</v>
       </c>
       <c r="T308" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U308" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29465,10 +29450,10 @@
         <v>23</v>
       </c>
       <c r="T309" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U309" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U309" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29528,10 +29513,10 @@
         <v>23</v>
       </c>
       <c r="T310" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U310" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="311" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29591,10 +29576,10 @@
         <v>23</v>
       </c>
       <c r="T311" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U311" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U311" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29605,7 +29590,7 @@
         <v>40</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>22</v>
@@ -29746,7 +29731,7 @@
         <v>235</v>
       </c>
       <c r="H314" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I314" s="12" t="s">
         <v>20</v>
@@ -29780,10 +29765,10 @@
         <v>23</v>
       </c>
       <c r="T314" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U314" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U314" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29843,10 +29828,10 @@
         <v>23</v>
       </c>
       <c r="T315" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U315" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29971,10 +29956,10 @@
         <v>23</v>
       </c>
       <c r="T317" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U317" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30034,10 +30019,10 @@
         <v>23</v>
       </c>
       <c r="T318" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U318" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30097,10 +30082,10 @@
         <v>23</v>
       </c>
       <c r="T319" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U319" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30160,10 +30145,10 @@
         <v>23</v>
       </c>
       <c r="T320" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U320" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="321" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30201,7 +30186,7 @@
         <v>28</v>
       </c>
       <c r="L321" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M321" s="13">
         <v>117</v>
@@ -30225,10 +30210,10 @@
         <v>23</v>
       </c>
       <c r="T321" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U321" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30290,10 +30275,10 @@
         <v>23</v>
       </c>
       <c r="T322" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U322" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30304,7 +30289,7 @@
         <v>83</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>22</v>
@@ -30322,7 +30307,7 @@
         <v>26</v>
       </c>
       <c r="I323" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J323" s="13">
         <v>0</v>
@@ -30331,7 +30316,7 @@
         <v>28</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M323" s="13">
         <v>126</v>
@@ -30355,10 +30340,10 @@
         <v>23</v>
       </c>
       <c r="T323" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U323" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30420,10 +30405,10 @@
         <v>23</v>
       </c>
       <c r="T324" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U324" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="325" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30434,7 +30419,7 @@
         <v>40</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>22</v>
@@ -30483,10 +30468,10 @@
         <v>23</v>
       </c>
       <c r="T325" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U325" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30546,10 +30531,10 @@
         <v>23</v>
       </c>
       <c r="T326" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U326" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="327" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30611,10 +30596,10 @@
         <v>23</v>
       </c>
       <c r="T327" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U327" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="328" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30674,10 +30659,10 @@
         <v>23</v>
       </c>
       <c r="T328" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U328" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="329" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30688,7 +30673,7 @@
         <v>40</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>22</v>
@@ -30778,7 +30763,7 @@
         <v>25</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M330" s="13">
         <v>106</v>
@@ -30802,10 +30787,10 @@
         <v>23</v>
       </c>
       <c r="T330" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U330" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30816,7 +30801,7 @@
         <v>40</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>22</v>
@@ -30865,10 +30850,10 @@
         <v>23</v>
       </c>
       <c r="T331" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U331" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="332" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30942,7 +30927,7 @@
         <v>40</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>22</v>
@@ -30991,10 +30976,10 @@
         <v>23</v>
       </c>
       <c r="T333" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U333" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="334" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31054,10 +31039,10 @@
         <v>23</v>
       </c>
       <c r="T334" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U334" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31117,10 +31102,10 @@
         <v>23</v>
       </c>
       <c r="T335" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U335" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31243,10 +31228,10 @@
         <v>23</v>
       </c>
       <c r="T337" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U337" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="338" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31367,10 +31352,10 @@
         <v>23</v>
       </c>
       <c r="T339" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U339" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31446,7 +31431,7 @@
         <v>51</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D341" s="12" t="s">
         <v>22</v>
@@ -31497,10 +31482,10 @@
         <v>23</v>
       </c>
       <c r="T341" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U341" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="342" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31511,7 +31496,7 @@
         <v>40</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D342" s="12" t="s">
         <v>22</v>
@@ -31560,10 +31545,10 @@
         <v>23</v>
       </c>
       <c r="T342" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U342" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31601,7 +31586,7 @@
         <v>23</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M343" s="13">
         <v>118</v>
@@ -31688,10 +31673,10 @@
         <v>23</v>
       </c>
       <c r="T344" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U344" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31729,7 +31714,7 @@
         <v>25</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M345" s="13">
         <v>101</v>
@@ -31753,10 +31738,10 @@
         <v>23</v>
       </c>
       <c r="T345" s="12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U345" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="346" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31818,10 +31803,10 @@
         <v>23</v>
       </c>
       <c r="T346" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U346" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="347" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31944,10 +31929,10 @@
         <v>23</v>
       </c>
       <c r="T348" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U348" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="349" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31958,7 +31943,7 @@
         <v>40</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D349" s="12" t="s">
         <v>22</v>
@@ -32009,10 +31994,10 @@
         <v>23</v>
       </c>
       <c r="T349" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U349" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32072,10 +32057,10 @@
         <v>23</v>
       </c>
       <c r="T350" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U350" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="351" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32135,10 +32120,10 @@
         <v>23</v>
       </c>
       <c r="T351" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U351" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32326,10 +32311,10 @@
         <v>23</v>
       </c>
       <c r="T354" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U354" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32391,10 +32376,10 @@
         <v>23</v>
       </c>
       <c r="T355" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U355" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="356" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32454,10 +32439,10 @@
         <v>23</v>
       </c>
       <c r="T356" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U356" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32483,7 +32468,7 @@
         <v>300</v>
       </c>
       <c r="H357" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I357" s="12" t="s">
         <v>24</v>
@@ -32517,10 +32502,10 @@
         <v>23</v>
       </c>
       <c r="T357" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U357" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U357" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="358" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32580,10 +32565,10 @@
         <v>23</v>
       </c>
       <c r="T358" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U358" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32643,10 +32628,10 @@
         <v>23</v>
       </c>
       <c r="T359" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U359" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="360" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32706,10 +32691,10 @@
         <v>23</v>
       </c>
       <c r="T360" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U360" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="361" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32747,7 +32732,7 @@
         <v>30</v>
       </c>
       <c r="L361" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M361" s="13">
         <v>103</v>
@@ -32771,10 +32756,10 @@
         <v>23</v>
       </c>
       <c r="T361" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U361" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="362" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32785,7 +32770,7 @@
         <v>42</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D362" s="12" t="s">
         <v>23</v>
@@ -32800,7 +32785,7 @@
         <v>286</v>
       </c>
       <c r="H362" s="12" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I362" s="12" t="s">
         <v>24</v>
@@ -32836,10 +32821,10 @@
         <v>23</v>
       </c>
       <c r="T362" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U362" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="363" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32899,10 +32884,10 @@
         <v>23</v>
       </c>
       <c r="T363" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U363" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="364" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32928,7 +32913,7 @@
         <v>278</v>
       </c>
       <c r="H364" s="12" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I364" s="12" t="s">
         <v>24</v>
@@ -32962,10 +32947,10 @@
         <v>23</v>
       </c>
       <c r="T364" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U364" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U364" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="365" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32991,7 +32976,7 @@
         <v>284</v>
       </c>
       <c r="H365" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I365" s="12" t="s">
         <v>20</v>
@@ -33003,7 +32988,7 @@
         <v>31</v>
       </c>
       <c r="L365" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M365" s="13">
         <v>119</v>
@@ -33027,10 +33012,10 @@
         <v>23</v>
       </c>
       <c r="T365" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U365" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U365" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="366" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33041,7 +33026,7 @@
         <v>40</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D366" s="12" t="s">
         <v>22</v>
@@ -33092,10 +33077,10 @@
         <v>23</v>
       </c>
       <c r="T366" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U366" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="367" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33157,10 +33142,10 @@
         <v>23</v>
       </c>
       <c r="T367" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U367" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="368" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33171,7 +33156,7 @@
         <v>40</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D368" s="12" t="s">
         <v>22</v>
@@ -33186,7 +33171,7 @@
         <v>273</v>
       </c>
       <c r="H368" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I368" s="12" t="s">
         <v>20</v>
@@ -33220,10 +33205,10 @@
         <v>23</v>
       </c>
       <c r="T368" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U368" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U368" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="369" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33261,7 +33246,7 @@
         <v>27</v>
       </c>
       <c r="L369" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M369" s="13">
         <v>101</v>
@@ -33285,10 +33270,10 @@
         <v>23</v>
       </c>
       <c r="T369" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U369" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="370" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33314,7 +33299,7 @@
         <v>297</v>
       </c>
       <c r="H370" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I370" s="12" t="s">
         <v>20</v>
@@ -33348,10 +33333,10 @@
         <v>23</v>
       </c>
       <c r="T370" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U370" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U370" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="371" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33413,10 +33398,10 @@
         <v>23</v>
       </c>
       <c r="T371" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U371" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="372" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33476,10 +33461,10 @@
         <v>23</v>
       </c>
       <c r="T372" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U372" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U372" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="373" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33490,7 +33475,7 @@
         <v>40</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>22</v>
@@ -33539,10 +33524,10 @@
         <v>23</v>
       </c>
       <c r="T373" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U373" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="374" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33568,7 +33553,7 @@
         <v>282</v>
       </c>
       <c r="H374" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I374" s="12" t="s">
         <v>20</v>
@@ -33602,10 +33587,10 @@
         <v>23</v>
       </c>
       <c r="T374" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U374" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U374" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="375" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33665,10 +33650,10 @@
         <v>23</v>
       </c>
       <c r="T375" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U375" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="376" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33728,10 +33713,10 @@
         <v>23</v>
       </c>
       <c r="T376" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U376" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="377" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33791,10 +33776,10 @@
         <v>23</v>
       </c>
       <c r="T377" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U377" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="378" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33854,15 +33839,15 @@
         <v>23</v>
       </c>
       <c r="T378" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U378" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="379" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B379" s="12" t="s">
         <v>40</v>
@@ -33917,10 +33902,10 @@
         <v>23</v>
       </c>
       <c r="T379" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U379" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="380" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33931,7 +33916,7 @@
         <v>42</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D380" s="12" t="s">
         <v>23</v>
@@ -33982,10 +33967,10 @@
         <v>23</v>
       </c>
       <c r="T380" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U380" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U380" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="381" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33996,7 +33981,7 @@
         <v>40</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D381" s="12" t="s">
         <v>22</v>
@@ -34110,10 +34095,10 @@
         <v>23</v>
       </c>
       <c r="T382" s="17" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="U382" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="383" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34139,7 +34124,7 @@
         <v>296</v>
       </c>
       <c r="H383" s="12" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I383" s="12" t="s">
         <v>20</v>
@@ -34173,10 +34158,10 @@
         <v>23</v>
       </c>
       <c r="T383" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="U383" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="384" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34299,10 +34284,10 @@
         <v>23</v>
       </c>
       <c r="T385" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U385" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U385" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="386" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34328,7 +34313,7 @@
         <v>263</v>
       </c>
       <c r="H386" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I386" s="12" t="s">
         <v>24</v>
@@ -34362,10 +34347,10 @@
         <v>23</v>
       </c>
       <c r="T386" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U386" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U386" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="387" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34391,7 +34376,7 @@
         <v>246</v>
       </c>
       <c r="H387" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I387" s="12" t="s">
         <v>20</v>
@@ -34441,7 +34426,7 @@
         <v>42</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D388" s="20" t="s">
         <v>22</v>
@@ -34456,7 +34441,7 @@
         <v>293</v>
       </c>
       <c r="H388" s="20" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I388" s="20" t="s">
         <v>24</v>
@@ -34492,10 +34477,10 @@
         <v>23</v>
       </c>
       <c r="T388" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="U388" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U388" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="389" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34506,7 +34491,7 @@
         <v>51</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D389" s="12" t="s">
         <v>22</v>
@@ -34647,7 +34632,7 @@
         <v>260</v>
       </c>
       <c r="H391" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I391" s="18" t="s">
         <v>24</v>
@@ -34659,7 +34644,7 @@
         <v>36</v>
       </c>
       <c r="L391" s="22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M391" s="23">
         <v>111</v>
@@ -34683,10 +34668,10 @@
         <v>23</v>
       </c>
       <c r="T391" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U391" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="392" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34712,7 +34697,7 @@
         <v>287</v>
       </c>
       <c r="H392" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I392" s="18" t="s">
         <v>24</v>
@@ -34746,10 +34731,10 @@
         <v>23</v>
       </c>
       <c r="T392" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U392" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="393" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34809,10 +34794,10 @@
         <v>23</v>
       </c>
       <c r="T393" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U393" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="394" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34872,10 +34857,10 @@
         <v>23</v>
       </c>
       <c r="T394" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U394" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="395" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34901,7 +34886,7 @@
         <v>291</v>
       </c>
       <c r="H395" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I395" s="18" t="s">
         <v>24</v>
@@ -34937,10 +34922,10 @@
         <v>23</v>
       </c>
       <c r="T395" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U395" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="396" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -34966,10 +34951,10 @@
         <v>300</v>
       </c>
       <c r="H396" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I396" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J396" s="23">
         <v>2</v>
@@ -35000,10 +34985,10 @@
         <v>23</v>
       </c>
       <c r="T396" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U396" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35014,7 +34999,7 @@
         <v>40</v>
       </c>
       <c r="C397" s="18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D397" s="18" t="s">
         <v>22</v>
@@ -35029,7 +35014,7 @@
         <v>265</v>
       </c>
       <c r="H397" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I397" s="18" t="s">
         <v>24</v>
@@ -35065,10 +35050,10 @@
         <v>23</v>
       </c>
       <c r="T397" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U397" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="398" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35079,7 +35064,7 @@
         <v>40</v>
       </c>
       <c r="C398" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D398" s="18" t="s">
         <v>22</v>
@@ -35126,10 +35111,10 @@
         <v>23</v>
       </c>
       <c r="T398" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U398" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="399" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35189,10 +35174,10 @@
         <v>23</v>
       </c>
       <c r="T399" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U399" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="400" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35218,7 +35203,7 @@
         <v>249</v>
       </c>
       <c r="H400" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I400" s="18" t="s">
         <v>20</v>
@@ -35254,10 +35239,10 @@
         <v>23</v>
       </c>
       <c r="T400" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U400" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="401" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35268,7 +35253,7 @@
         <v>40</v>
       </c>
       <c r="C401" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D401" s="18" t="s">
         <v>22</v>
@@ -35317,10 +35302,10 @@
         <v>23</v>
       </c>
       <c r="T401" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U401" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="402" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35331,7 +35316,7 @@
         <v>40</v>
       </c>
       <c r="C402" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D402" s="18" t="s">
         <v>23</v>
@@ -35382,10 +35367,10 @@
         <v>23</v>
       </c>
       <c r="T402" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U402" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35510,21 +35495,21 @@
         <v>23</v>
       </c>
       <c r="T404" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U404" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="405" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B405" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C405" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D405" s="18" t="s">
         <v>22</v>
@@ -35573,10 +35558,10 @@
         <v>23</v>
       </c>
       <c r="T405" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U405" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="406" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35602,7 +35587,7 @@
         <v>270</v>
       </c>
       <c r="H406" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I406" s="18" t="s">
         <v>20</v>
@@ -35638,10 +35623,10 @@
         <v>23</v>
       </c>
       <c r="T406" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U406" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="407" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35652,7 +35637,7 @@
         <v>51</v>
       </c>
       <c r="C407" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D407" s="18" t="s">
         <v>23</v>
@@ -35667,7 +35652,7 @@
         <v>273</v>
       </c>
       <c r="H407" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I407" s="18" t="s">
         <v>20</v>
@@ -35703,10 +35688,10 @@
         <v>23</v>
       </c>
       <c r="T407" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U407" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="408" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35717,7 +35702,7 @@
         <v>42</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D408" s="18" t="s">
         <v>22</v>
@@ -35766,10 +35751,10 @@
         <v>23</v>
       </c>
       <c r="T408" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U408" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="409" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35829,10 +35814,10 @@
         <v>23</v>
       </c>
       <c r="T409" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U409" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="410" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -35843,7 +35828,7 @@
         <v>42</v>
       </c>
       <c r="C410" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D410" s="18" t="s">
         <v>22</v>
@@ -35858,7 +35843,7 @@
         <v>272</v>
       </c>
       <c r="H410" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I410" s="18" t="s">
         <v>20</v>
@@ -35892,10 +35877,10 @@
         <v>23</v>
       </c>
       <c r="T410" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U410" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="411" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36018,10 +36003,10 @@
         <v>23</v>
       </c>
       <c r="T412" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U412" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="413" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36081,10 +36066,10 @@
         <v>23</v>
       </c>
       <c r="T413" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U413" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="414" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36110,7 +36095,7 @@
         <v>259</v>
       </c>
       <c r="H414" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I414" s="18" t="s">
         <v>20</v>
@@ -36146,10 +36131,10 @@
         <v>23</v>
       </c>
       <c r="T414" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U414" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36160,7 +36145,7 @@
         <v>40</v>
       </c>
       <c r="C415" s="18" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D415" s="18" t="s">
         <v>22</v>
@@ -36209,10 +36194,10 @@
         <v>23</v>
       </c>
       <c r="T415" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U415" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="416" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36272,10 +36257,10 @@
         <v>23</v>
       </c>
       <c r="T416" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U416" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36337,10 +36322,10 @@
         <v>23</v>
       </c>
       <c r="T417" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U417" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="418" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36402,10 +36387,10 @@
         <v>23</v>
       </c>
       <c r="T418" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U418" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="419" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36431,7 +36416,7 @@
         <v>263</v>
       </c>
       <c r="H419" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I419" s="18" t="s">
         <v>20</v>
@@ -36465,10 +36450,10 @@
         <v>23</v>
       </c>
       <c r="T419" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U419" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="420" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36528,10 +36513,10 @@
         <v>23</v>
       </c>
       <c r="T420" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U420" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="421" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36542,7 +36527,7 @@
         <v>40</v>
       </c>
       <c r="C421" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D421" s="18" t="s">
         <v>23</v>
@@ -36591,10 +36576,10 @@
         <v>23</v>
       </c>
       <c r="T421" s="17" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="U421" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="422" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36605,7 +36590,7 @@
         <v>40</v>
       </c>
       <c r="C422" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D422" s="18" t="s">
         <v>22</v>
@@ -36654,10 +36639,10 @@
         <v>23</v>
       </c>
       <c r="T422" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U422" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="423" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36683,7 +36668,7 @@
         <v>300</v>
       </c>
       <c r="H423" s="18" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I423" s="18" t="s">
         <v>20</v>
@@ -36717,10 +36702,10 @@
         <v>23</v>
       </c>
       <c r="T423" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U423" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="424" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36746,7 +36731,7 @@
         <v>274</v>
       </c>
       <c r="H424" s="18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I424" s="18" t="s">
         <v>20</v>
@@ -36780,10 +36765,10 @@
         <v>23</v>
       </c>
       <c r="T424" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U424" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="425" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36843,10 +36828,10 @@
         <v>23</v>
       </c>
       <c r="T425" s="17" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U425" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="426" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36969,10 +36954,10 @@
         <v>23</v>
       </c>
       <c r="T427" s="18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U427" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="428" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -36998,7 +36983,7 @@
         <v>261</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I428" s="10" t="s">
         <v>24</v>
@@ -37032,10 +37017,10 @@
         <v>23</v>
       </c>
       <c r="T428" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U428" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="429" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37095,10 +37080,10 @@
         <v>23</v>
       </c>
       <c r="T429" s="12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U429" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="430" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37124,7 +37109,7 @@
         <v>296</v>
       </c>
       <c r="H430" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I430" s="12" t="s">
         <v>20</v>
@@ -37160,10 +37145,10 @@
         <v>23</v>
       </c>
       <c r="T430" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U430" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="431" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37174,7 +37159,7 @@
         <v>42</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D431" s="12" t="s">
         <v>22</v>
@@ -37223,10 +37208,10 @@
         <v>23</v>
       </c>
       <c r="T431" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U431" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="432" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37252,7 +37237,7 @@
         <v>247</v>
       </c>
       <c r="H432" s="12" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I432" s="10" t="s">
         <v>24</v>
@@ -37286,10 +37271,10 @@
         <v>23</v>
       </c>
       <c r="T432" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U432" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="433" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37349,10 +37334,10 @@
         <v>23</v>
       </c>
       <c r="T433" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U433" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="434" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37426,7 +37411,7 @@
         <v>42</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D435" s="12" t="s">
         <v>22</v>
@@ -37475,10 +37460,10 @@
         <v>23</v>
       </c>
       <c r="T435" s="12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U435" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="436" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37504,7 +37489,7 @@
         <v>249</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I436" s="12" t="s">
         <v>20</v>
@@ -37552,7 +37537,7 @@
         <v>42</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>23</v>
@@ -37600,10 +37585,10 @@
         <v>23</v>
       </c>
       <c r="T437" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U437" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="438" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37629,7 +37614,7 @@
         <v>256</v>
       </c>
       <c r="H438" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I438" s="10" t="s">
         <v>24</v>
@@ -37665,10 +37650,10 @@
         <v>23</v>
       </c>
       <c r="T438" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U438" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37679,7 +37664,7 @@
         <v>42</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>23</v>
@@ -37730,10 +37715,10 @@
         <v>23</v>
       </c>
       <c r="T439" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U439" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="440" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37759,7 +37744,7 @@
         <v>269</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I440" s="10" t="s">
         <v>24</v>
@@ -37792,10 +37777,10 @@
         <v>23</v>
       </c>
       <c r="T440" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U440" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="441" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37857,10 +37842,10 @@
         <v>23</v>
       </c>
       <c r="T441" s="12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U441" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="442" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37919,10 +37904,10 @@
         <v>23</v>
       </c>
       <c r="T442" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U442" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="443" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37984,10 +37969,10 @@
         <v>23</v>
       </c>
       <c r="T443" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U443" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="444" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -37998,7 +37983,7 @@
         <v>40</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>22</v>
@@ -38049,10 +38034,10 @@
         <v>23</v>
       </c>
       <c r="T444" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U444" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="445" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38063,7 +38048,7 @@
         <v>40</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>22</v>
@@ -38111,10 +38096,10 @@
         <v>23</v>
       </c>
       <c r="T445" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U445" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="446" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38140,7 +38125,7 @@
         <v>275</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I446" s="12" t="s">
         <v>20</v>
@@ -38173,10 +38158,10 @@
         <v>23</v>
       </c>
       <c r="T446" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U446" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="447" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38235,10 +38220,10 @@
         <v>23</v>
       </c>
       <c r="T447" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U447" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="448" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38297,10 +38282,10 @@
         <v>23</v>
       </c>
       <c r="T448" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U448" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="449" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38421,10 +38406,10 @@
         <v>23</v>
       </c>
       <c r="T450" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U450" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="451" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38435,7 +38420,7 @@
         <v>40</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>22</v>
@@ -38450,7 +38435,7 @@
         <v>290</v>
       </c>
       <c r="H451" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I451" s="10" t="s">
         <v>24</v>
@@ -38462,7 +38447,7 @@
         <v>23</v>
       </c>
       <c r="L451" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M451" s="9">
         <v>116</v>
@@ -38486,10 +38471,10 @@
         <v>23</v>
       </c>
       <c r="T451" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U451" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="452" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38577,7 +38562,7 @@
         <v>251</v>
       </c>
       <c r="H453" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I453" s="10" t="s">
         <v>24</v>
@@ -38613,10 +38598,10 @@
         <v>23</v>
       </c>
       <c r="T453" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U453" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38675,10 +38660,10 @@
         <v>23</v>
       </c>
       <c r="T454" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U454" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="455" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38737,21 +38722,21 @@
         <v>23</v>
       </c>
       <c r="T455" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U455" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="456" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B456" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>22</v>
@@ -38778,7 +38763,7 @@
         <v>29</v>
       </c>
       <c r="L456" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M456" s="9">
         <v>100</v>
@@ -38802,10 +38787,10 @@
         <v>23</v>
       </c>
       <c r="T456" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U456" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="457" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38864,10 +38849,10 @@
         <v>23</v>
       </c>
       <c r="T457" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U457" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="458" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38878,7 +38863,7 @@
         <v>42</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>23</v>
@@ -38926,10 +38911,10 @@
         <v>23</v>
       </c>
       <c r="T458" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U458" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -38940,7 +38925,7 @@
         <v>42</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>22</v>
@@ -38955,7 +38940,7 @@
         <v>283</v>
       </c>
       <c r="H459" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I459" s="10" t="s">
         <v>24</v>
@@ -38991,15 +38976,15 @@
         <v>23</v>
       </c>
       <c r="T459" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U459" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="460" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B460" s="12" t="s">
         <v>40</v>
@@ -39056,21 +39041,21 @@
         <v>23</v>
       </c>
       <c r="T460" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U460" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="461" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B461" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>22</v>
@@ -39118,10 +39103,10 @@
         <v>23</v>
       </c>
       <c r="T461" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U461" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="462" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39180,10 +39165,10 @@
         <v>23</v>
       </c>
       <c r="T462" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U462" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="U462" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="463" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39245,10 +39230,10 @@
         <v>23</v>
       </c>
       <c r="T463" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U463" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="464" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39274,7 +39259,7 @@
         <v>251</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="I464" s="12" t="s">
         <v>20</v>
@@ -39286,7 +39271,7 @@
         <v>32</v>
       </c>
       <c r="L464" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M464" s="9">
         <v>101</v>
@@ -39310,15 +39295,15 @@
         <v>23</v>
       </c>
       <c r="T464" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U464" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="465" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B465" s="12" t="s">
         <v>40</v>
@@ -39434,10 +39419,10 @@
         <v>23</v>
       </c>
       <c r="T466" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U466" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="467" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39496,10 +39481,10 @@
         <v>23</v>
       </c>
       <c r="T467" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U467" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="468" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39558,10 +39543,10 @@
         <v>23</v>
       </c>
       <c r="T468" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U468" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="469" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39620,10 +39605,10 @@
         <v>23</v>
       </c>
       <c r="T469" s="12" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="U469" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="470" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39682,10 +39667,10 @@
         <v>23</v>
       </c>
       <c r="T470" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U470" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="471" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39744,10 +39729,10 @@
         <v>23</v>
       </c>
       <c r="T471" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U471" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="472" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39807,10 +39792,10 @@
         <v>23</v>
       </c>
       <c r="T472" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U472" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="473" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39933,10 +39918,10 @@
         <v>23</v>
       </c>
       <c r="T474" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U474" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U474" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="475" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -39995,15 +39980,15 @@
         <v>23</v>
       </c>
       <c r="T475" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U475" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U475" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="476" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B476" s="12" t="s">
         <v>40</v>
@@ -40024,7 +40009,7 @@
         <v>282</v>
       </c>
       <c r="H476" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I476" s="10" t="s">
         <v>24</v>
@@ -40057,10 +40042,10 @@
         <v>23</v>
       </c>
       <c r="T476" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U476" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U476" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="477" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40119,10 +40104,10 @@
         <v>23</v>
       </c>
       <c r="T477" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U477" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U477" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="478" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40184,10 +40169,10 @@
         <v>23</v>
       </c>
       <c r="T478" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U478" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U478" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="479" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40246,10 +40231,10 @@
         <v>23</v>
       </c>
       <c r="T479" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U479" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U479" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="480" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40311,10 +40296,10 @@
         <v>23</v>
       </c>
       <c r="T480" s="12" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="U480" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="481" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40340,7 +40325,7 @@
         <v>260</v>
       </c>
       <c r="H481" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I481" s="10" t="s">
         <v>20</v>
@@ -40373,10 +40358,10 @@
         <v>23</v>
       </c>
       <c r="T481" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U481" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U481" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="482" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40435,10 +40420,10 @@
         <v>23</v>
       </c>
       <c r="T482" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="U482" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="U482" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="483" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -40464,7 +40449,7 @@
         <v>297</v>
       </c>
       <c r="H483" s="12" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I483" s="10" t="s">
         <v>24</v>
@@ -40500,10 +40485,10 @@
         <v>23</v>
       </c>
       <c r="T483" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U483" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U483" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -40519,15 +40504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
@@ -40540,7 +40516,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4DDA97709D05344805E34443243448B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9eeeb8ecc7e5384bf1028f09b4198e68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4233fc49-3339-4531-8895-cee7bd229291" xmlns:ns3="c93905bf-b08c-430b-8630-76f4d352397a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24c3c3abd9978446371d5fdb96159abb" ns2:_="" ns3:_="">
     <xsd:import namespace="4233fc49-3339-4531-8895-cee7bd229291"/>
@@ -40772,15 +40748,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1286C2-D303-4CB0-988E-81FAB35D11B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B407060D-E707-4A24-875F-4E4C1B032515}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -40797,7 +40774,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D891CB69-F5BA-4210-B9BF-2F4C2B80A6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40814,4 +40791,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A1286C2-D303-4CB0-988E-81FAB35D11B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>